--- a/workfile/锐安项目文档/bi/biwork.xlsx
+++ b/workfile/锐安项目文档/bi/biwork.xlsx
@@ -79,60 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>需求确认，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>数据模型初版</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>需求确认，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>demo初版（excel）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>解决方案的制定及实现，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面原型再版</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对页面原型再版的确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +107,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>etl数据抽取，变更调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl数据抽取，变更调整，数据测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案的制定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>数据测试,</t>
     </r>
@@ -169,12 +127,72 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>测试用例</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解决方案的制定及实现，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面原型再版</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进行初版的问题跟踪,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求分析文档</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>测试数据插入，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面原型初版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（下午5点前）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,14 +205,30 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>测试用例</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需求确认，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>demo初版（excel）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -205,72 +239,29 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>测试报告</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>etl数据抽取，变更调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>测试数据插入，</t>
+      <t>需求确认，</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页面原型初版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>（下午5点前）</t>
+      <t>数据模型初版</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>进行初版的问题跟踪,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需求分析文档</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl数据抽取，变更调整，数据测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案的制定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,29 +294,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -334,15 +371,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2837,7 +2886,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2846,119 +2895,132 @@
     <col min="3" max="7" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2976,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
